--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lead Entry" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId6"/>
+    <sheet name="Employee" sheetId="5" r:id="rId3"/>
+    <sheet name="Batch" sheetId="6" r:id="rId4"/>
+    <sheet name="Master" sheetId="7" r:id="rId5"/>
+    <sheet name="Lead Assign Details" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="538">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -1504,18 +1504,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Revanth B,Vimal R,Raja M,Guru R,Sabi L,Jai S,Jayabal A,Ruban B</t>
-  </si>
-  <si>
-    <t>Leaad Status</t>
-  </si>
-  <si>
-    <t>Counselor Name</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
@@ -1525,14 +1513,146 @@
     <t>H</t>
   </si>
   <si>
-    <t>Call the Person ….</t>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Vimal R</t>
+  </si>
+  <si>
+    <t>Revanth B</t>
+  </si>
+  <si>
+    <t>Convert From</t>
+  </si>
+  <si>
+    <t>Converted</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Murali K</t>
+  </si>
+  <si>
+    <t>Ruban B</t>
+  </si>
+  <si>
+    <t>Jayabal A</t>
+  </si>
+  <si>
+    <t>Jai S</t>
+  </si>
+  <si>
+    <t>Sabi L</t>
+  </si>
+  <si>
+    <t>Guru R</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>ModeOfPay</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>PreferrableClass</t>
+  </si>
+  <si>
+    <t>PreferredMonth</t>
+  </si>
+  <si>
+    <t>Transaction Id</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>DebitCard</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Googlepay</t>
+  </si>
+  <si>
+    <t>Course/Lead Status</t>
+  </si>
+  <si>
+    <t>Counselor assign/Payment For</t>
+  </si>
+  <si>
+    <t>Remarks/PreferredYear</t>
+  </si>
+  <si>
+    <t>trn987456</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>Raja M</t>
+  </si>
+  <si>
+    <t>Leela A</t>
+  </si>
+  <si>
+    <t>trn987457</t>
+  </si>
+  <si>
+    <t>trn987458</t>
+  </si>
+  <si>
+    <t>trn987459</t>
+  </si>
+  <si>
+    <t>trn987460</t>
+  </si>
+  <si>
+    <t>trn987461</t>
+  </si>
+  <si>
+    <t>trn987462</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>12/05/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,16 +1706,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1618,12 +1763,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -1649,6 +1814,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,7 +2114,7 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2792,7 @@
         <v>142</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>241</v>
@@ -3243,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,6 +3817,9 @@
       <c r="A23" s="5" t="s">
         <v>220</v>
       </c>
+      <c r="I23" s="19" t="s">
+        <v>498</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>252</v>
       </c>
@@ -3650,6 +3831,9 @@
       <c r="H24" s="9" t="s">
         <v>267</v>
       </c>
+      <c r="I24" s="19" t="s">
+        <v>499</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>253</v>
       </c>
@@ -3664,6 +3848,9 @@
       <c r="H25" t="s">
         <v>483</v>
       </c>
+      <c r="I25" t="s">
+        <v>500</v>
+      </c>
       <c r="J25" s="1" t="s">
         <v>259</v>
       </c>
@@ -3675,6 +3862,9 @@
       <c r="F26" s="15" t="s">
         <v>312</v>
       </c>
+      <c r="I26" t="s">
+        <v>501</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>261</v>
       </c>
@@ -3686,6 +3876,9 @@
       <c r="F27" s="15" t="s">
         <v>313</v>
       </c>
+      <c r="I27" t="s">
+        <v>502</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>260</v>
       </c>
@@ -3707,7 +3900,7 @@
         <v>1001</v>
       </c>
       <c r="G28" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>204</v>
@@ -3730,7 +3923,7 @@
         <v>1002</v>
       </c>
       <c r="G29" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>204</v>
@@ -3763,6 +3956,9 @@
       <c r="E31">
         <v>1004</v>
       </c>
+      <c r="G31" s="15" t="s">
+        <v>493</v>
+      </c>
       <c r="H31" s="9" t="s">
         <v>487</v>
       </c>
@@ -3777,6 +3973,9 @@
       <c r="E32">
         <v>1005</v>
       </c>
+      <c r="G32" s="15" t="s">
+        <v>494</v>
+      </c>
       <c r="H32" t="s">
         <v>488</v>
       </c>
@@ -3832,6 +4031,12 @@
       <c r="A37" t="s">
         <v>400</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>516</v>
+      </c>
       <c r="E37">
         <v>1010</v>
       </c>
@@ -3843,6 +4048,12 @@
       <c r="A38" t="s">
         <v>398</v>
       </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>517</v>
+      </c>
       <c r="E38">
         <v>1011</v>
       </c>
@@ -3854,6 +4065,12 @@
       <c r="A39" t="s">
         <v>401</v>
       </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>518</v>
+      </c>
       <c r="E39">
         <v>1012</v>
       </c>
@@ -3862,43 +4079,75 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>519</v>
+      </c>
       <c r="E40">
         <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
       <c r="E41">
         <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>6</v>
+      </c>
       <c r="E42">
         <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>7</v>
+      </c>
       <c r="E43">
         <v>1016</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8</v>
+      </c>
       <c r="E44">
         <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>9</v>
+      </c>
       <c r="E45">
         <v>1018</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>10</v>
+      </c>
       <c r="E46">
         <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>11</v>
+      </c>
       <c r="E47">
         <v>1020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -4777,7 +5026,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,10 +5117,10 @@
         <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
         <v>356</v>
@@ -4924,6 +5173,9 @@
       <c r="B3" t="s">
         <v>338</v>
       </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
       <c r="D3" t="s">
         <v>253</v>
       </c>
@@ -4969,7 +5221,10 @@
         <v>365</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
@@ -5018,6 +5273,9 @@
       <c r="B5" t="s">
         <v>339</v>
       </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
       <c r="D5" t="s">
         <v>356</v>
       </c>
@@ -5065,6 +5323,9 @@
       <c r="B6" t="s">
         <v>340</v>
       </c>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
       <c r="D6" t="s">
         <v>252</v>
       </c>
@@ -5110,7 +5371,10 @@
         <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
       </c>
       <c r="D7" t="s">
         <v>232</v>
@@ -5159,6 +5423,9 @@
       <c r="B8" t="s">
         <v>341</v>
       </c>
+      <c r="C8" t="s">
+        <v>345</v>
+      </c>
       <c r="D8" t="s">
         <v>252</v>
       </c>
@@ -5205,6 +5472,9 @@
       </c>
       <c r="B9" t="s">
         <v>341</v>
+      </c>
+      <c r="C9" t="s">
+        <v>349</v>
       </c>
       <c r="D9" t="s">
         <v>232</v>
@@ -5251,7 +5521,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$G$1:$G$3</xm:f>
@@ -5262,7 +5532,7 @@
           <x14:formula1>
             <xm:f>DATA!$H$1:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:C9</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5300,6 +5570,12 @@
           </x14:formula1>
           <xm:sqref>O2:O9</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$I$1:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C9</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -5311,7 +5587,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,94 +5659,395 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>489</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATA!$E$28:$E$47</xm:f>
+            <xm:f>DATA!$I$23:$I$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATA!$G$28:$G$30</xm:f>
+            <xm:f>DATA!$E$10:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>F2:F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$B$35:$B$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$C$37:$C$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575"/>
   </bookViews>
   <sheets>
-    <sheet name="Lead Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="DATA" sheetId="4" r:id="rId2"/>
-    <sheet name="Employee" sheetId="5" r:id="rId3"/>
-    <sheet name="Batch" sheetId="6" r:id="rId4"/>
-    <sheet name="Master" sheetId="7" r:id="rId5"/>
-    <sheet name="Lead Assign Details" sheetId="8" r:id="rId6"/>
+    <sheet name="Login" sheetId="10" r:id="rId1"/>
+    <sheet name="Lead Entry" sheetId="1" r:id="rId2"/>
+    <sheet name="DATA" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Employee" sheetId="5" r:id="rId4"/>
+    <sheet name="Batch" sheetId="6" r:id="rId5"/>
+    <sheet name="Master" sheetId="7" r:id="rId6"/>
+    <sheet name="Lead Assign Details" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="832">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -1086,12 +1087,6 @@
     <t>BatchType</t>
   </si>
   <si>
-    <t>Batch-MinSize</t>
-  </si>
-  <si>
-    <t>Batch-MaxSize</t>
-  </si>
-  <si>
     <t>BatchSession</t>
   </si>
   <si>
@@ -1107,27 +1102,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>01/05/2019</t>
-  </si>
-  <si>
-    <t>03/15/2019</t>
-  </si>
-  <si>
-    <t>01/05/2020</t>
-  </si>
-  <si>
-    <t>03/15/2020</t>
-  </si>
-  <si>
-    <t>04/04/2019</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -1137,45 +1111,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>05/05/2020</t>
-  </si>
-  <si>
-    <t>07/07/2020</t>
-  </si>
-  <si>
-    <t>07/07/2019</t>
-  </si>
-  <si>
-    <t>10/07/2019</t>
-  </si>
-  <si>
-    <t>10/07/2020</t>
-  </si>
-  <si>
-    <t>06/05/2019</t>
-  </si>
-  <si>
-    <t>07/05/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>12/07/2019</t>
-  </si>
-  <si>
-    <t>09/07/2019</t>
-  </si>
-  <si>
-    <t>12/07/2020</t>
-  </si>
-  <si>
     <t>BatchGroupCode</t>
   </si>
   <si>
@@ -1185,474 +1120,1452 @@
     <t>No.of Test</t>
   </si>
   <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>VenkateshRajan</t>
+  </si>
+  <si>
+    <t>Raghunathan</t>
+  </si>
+  <si>
+    <t>VandanaPrakash</t>
+  </si>
+  <si>
+    <t>Anujshukla</t>
+  </si>
+  <si>
+    <t>MaheshKumar</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>Quants</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>Just Dial</t>
+  </si>
+  <si>
+    <t>Urban Pro</t>
+  </si>
+  <si>
+    <t>Others,Ad Agencies</t>
+  </si>
+  <si>
+    <t>Telephone,Others,Ad Agencies</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Selvam</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Jannah</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Kumaran</t>
+  </si>
+  <si>
+    <t>Karthick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAMEED</t>
+  </si>
+  <si>
+    <t>SHAHUL</t>
+  </si>
+  <si>
+    <t>Velavan</t>
+  </si>
+  <si>
+    <t>Moorthy</t>
+  </si>
+  <si>
+    <t>Sheetha</t>
+  </si>
+  <si>
+    <t>Faruk</t>
+  </si>
+  <si>
+    <t>Basha</t>
+  </si>
+  <si>
+    <t>Vennila</t>
+  </si>
+  <si>
+    <t>jaya</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>MG Road</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>Gandhi Road</t>
+  </si>
+  <si>
+    <t>Medvakkam</t>
+  </si>
+  <si>
+    <t>RK Road</t>
+  </si>
+  <si>
+    <t>MPL Colony</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Poonamallee</t>
+  </si>
+  <si>
+    <t>vadapalani</t>
+  </si>
+  <si>
+    <t>Guindy</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>manojkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>SHAZIYAFATHIMA@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANNATHAMEENA@gmail.com </t>
+  </si>
+  <si>
+    <t>SELVAKUMAR@gmail.com</t>
+  </si>
+  <si>
+    <t>GOWTHAM@gmail.com</t>
+  </si>
+  <si>
+    <t>KRISHNA@gmail.com</t>
+  </si>
+  <si>
+    <t>VINOTH@gmail.com</t>
+  </si>
+  <si>
+    <t>SURESH@gmail.com</t>
+  </si>
+  <si>
+    <t>SAKTHIVEL@gmail.com</t>
+  </si>
+  <si>
+    <t>HAMEED@gmail.com</t>
+  </si>
+  <si>
+    <t>DINESH@gmail.com</t>
+  </si>
+  <si>
+    <t>SARAVANA@gmail.com</t>
+  </si>
+  <si>
+    <t>SHEELAPRIYA@gmail.com</t>
+  </si>
+  <si>
+    <t>AFRIDHUSSAIN@gmail.com</t>
+  </si>
+  <si>
+    <t>587116</t>
+  </si>
+  <si>
+    <t>587114</t>
+  </si>
+  <si>
+    <t>587115</t>
+  </si>
+  <si>
+    <t>600096</t>
+  </si>
+  <si>
+    <t>600097</t>
+  </si>
+  <si>
+    <t>600098</t>
+  </si>
+  <si>
+    <t>600099</t>
+  </si>
+  <si>
+    <t>600100</t>
+  </si>
+  <si>
+    <t>600101</t>
+  </si>
+  <si>
+    <t>587118</t>
+  </si>
+  <si>
+    <t>587119</t>
+  </si>
+  <si>
+    <t>600021</t>
+  </si>
+  <si>
+    <t>9874563201</t>
+  </si>
+  <si>
+    <t>6985230147</t>
+  </si>
+  <si>
+    <t>8974563210</t>
+  </si>
+  <si>
+    <t>8879653201</t>
+  </si>
+  <si>
+    <t>7896541230</t>
+  </si>
+  <si>
+    <t>7895412360</t>
+  </si>
+  <si>
+    <t>8896523014</t>
+  </si>
+  <si>
+    <t>8745963201</t>
+  </si>
+  <si>
+    <t>8899654712</t>
+  </si>
+  <si>
+    <t>8965230147</t>
+  </si>
+  <si>
+    <t>8745963210</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Option Type</t>
+  </si>
+  <si>
+    <t>Option Name</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Quants,</t>
+  </si>
+  <si>
+    <t>Verbal,Quants</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Vimal R</t>
+  </si>
+  <si>
+    <t>Revanth B</t>
+  </si>
+  <si>
+    <t>Convert From</t>
+  </si>
+  <si>
+    <t>Converted</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Murali K</t>
+  </si>
+  <si>
+    <t>Ruban B</t>
+  </si>
+  <si>
+    <t>Jayabal A</t>
+  </si>
+  <si>
+    <t>Jai S</t>
+  </si>
+  <si>
+    <t>Sabi L</t>
+  </si>
+  <si>
+    <t>Guru R</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>ModeOfPay</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>PreferrableClass</t>
+  </si>
+  <si>
+    <t>PreferredMonth</t>
+  </si>
+  <si>
+    <t>Transaction Id</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>DebitCard</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Googlepay</t>
+  </si>
+  <si>
+    <t>Course/Lead Status</t>
+  </si>
+  <si>
+    <t>Counselor assign/Payment For</t>
+  </si>
+  <si>
+    <t>Remarks/PreferredYear</t>
+  </si>
+  <si>
+    <t>trn987456</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>Raja M</t>
+  </si>
+  <si>
+    <t>Leela A</t>
+  </si>
+  <si>
+    <t>trn987457</t>
+  </si>
+  <si>
+    <t>trn987458</t>
+  </si>
+  <si>
+    <t>trn987459</t>
+  </si>
+  <si>
+    <t>trn987460</t>
+  </si>
+  <si>
+    <t>trn987461</t>
+  </si>
+  <si>
+    <t>trn987462</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>12/05/2019</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Sriram R</t>
+  </si>
+  <si>
+    <t>SathishKumar K</t>
+  </si>
+  <si>
+    <t>Sivakumar P</t>
+  </si>
+  <si>
+    <t>Baby N</t>
+  </si>
+  <si>
+    <t>Hariram RP</t>
+  </si>
+  <si>
+    <t>Kalaivani R</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>Quants 
+Tutor</t>
+  </si>
+  <si>
+    <t>Verb 
+Tutor</t>
+  </si>
+  <si>
+    <t>0245PM</t>
+  </si>
+  <si>
+    <t>0345PM</t>
+  </si>
+  <si>
+    <t>StartTime 1</t>
+  </si>
+  <si>
+    <t>StartTime 2</t>
+  </si>
+  <si>
+    <t>StartTime 3</t>
+  </si>
+  <si>
+    <t>Content 4</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Tutor 1</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>Content 1</t>
+  </si>
+  <si>
+    <t>EndTime 1</t>
+  </si>
+  <si>
     <t>ClassStart
-Date</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartTime </t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Mohan.S</t>
-  </si>
-  <si>
-    <t>SathishKumar.K</t>
-  </si>
-  <si>
-    <t>Sriram.R</t>
-  </si>
-  <si>
-    <t>VenkateshRajan</t>
-  </si>
-  <si>
-    <t>Raghunathan</t>
-  </si>
-  <si>
-    <t>VandanaPrakash</t>
-  </si>
-  <si>
-    <t>Sivakumar</t>
-  </si>
-  <si>
-    <t>Anujshukla</t>
-  </si>
-  <si>
-    <t>Kalaivani.R</t>
-  </si>
-  <si>
-    <t>Baby.N</t>
-  </si>
-  <si>
-    <t>Hariram.N.P</t>
-  </si>
-  <si>
-    <t>MaheshKumar</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Verbal</t>
-  </si>
-  <si>
-    <t>Quants</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>Just Dial</t>
-  </si>
-  <si>
-    <t>Urban Pro</t>
-  </si>
-  <si>
-    <t>Others,Ad Agencies</t>
-  </si>
-  <si>
-    <t>Telephone,Others,Ad Agencies</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Selvam</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Jannah</t>
-  </si>
-  <si>
-    <t>Manoj</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
-    <t>Kumaran</t>
-  </si>
-  <si>
-    <t>Karthick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAMEED</t>
-  </si>
-  <si>
-    <t>SHAHUL</t>
-  </si>
-  <si>
-    <t>Velavan</t>
-  </si>
-  <si>
-    <t>Moorthy</t>
-  </si>
-  <si>
-    <t>Sheetha</t>
-  </si>
-  <si>
-    <t>Faruk</t>
-  </si>
-  <si>
-    <t>Basha</t>
-  </si>
-  <si>
-    <t>Vennila</t>
-  </si>
-  <si>
-    <t>jaya</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>MG Road</t>
-  </si>
-  <si>
-    <t>Majestic</t>
-  </si>
-  <si>
-    <t>Gandhi Road</t>
-  </si>
-  <si>
-    <t>Medvakkam</t>
-  </si>
-  <si>
-    <t>RK Road</t>
-  </si>
-  <si>
-    <t>MPL Colony</t>
-  </si>
-  <si>
-    <t>OMR</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Poonamallee</t>
-  </si>
-  <si>
-    <t>vadapalani</t>
-  </si>
-  <si>
-    <t>Guindy</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>manojkumar@gmail.com</t>
-  </si>
-  <si>
-    <t>SHAZIYAFATHIMA@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JANNATHAMEENA@gmail.com </t>
-  </si>
-  <si>
-    <t>SELVAKUMAR@gmail.com</t>
-  </si>
-  <si>
-    <t>GOWTHAM@gmail.com</t>
-  </si>
-  <si>
-    <t>KRISHNA@gmail.com</t>
-  </si>
-  <si>
-    <t>VINOTH@gmail.com</t>
-  </si>
-  <si>
-    <t>SURESH@gmail.com</t>
-  </si>
-  <si>
-    <t>SAKTHIVEL@gmail.com</t>
-  </si>
-  <si>
-    <t>HAMEED@gmail.com</t>
-  </si>
-  <si>
-    <t>DINESH@gmail.com</t>
-  </si>
-  <si>
-    <t>SARAVANA@gmail.com</t>
-  </si>
-  <si>
-    <t>SHEELAPRIYA@gmail.com</t>
-  </si>
-  <si>
-    <t>AFRIDHUSSAIN@gmail.com</t>
-  </si>
-  <si>
-    <t>587116</t>
-  </si>
-  <si>
-    <t>587114</t>
-  </si>
-  <si>
-    <t>587115</t>
-  </si>
-  <si>
-    <t>600096</t>
-  </si>
-  <si>
-    <t>600097</t>
-  </si>
-  <si>
-    <t>600098</t>
-  </si>
-  <si>
-    <t>600099</t>
-  </si>
-  <si>
-    <t>600100</t>
-  </si>
-  <si>
-    <t>600101</t>
-  </si>
-  <si>
-    <t>587118</t>
-  </si>
-  <si>
-    <t>587119</t>
-  </si>
-  <si>
-    <t>600021</t>
-  </si>
-  <si>
-    <t>9874563201</t>
-  </si>
-  <si>
-    <t>6985230147</t>
-  </si>
-  <si>
-    <t>8974563210</t>
-  </si>
-  <si>
-    <t>8879653201</t>
-  </si>
-  <si>
-    <t>7896541230</t>
-  </si>
-  <si>
-    <t>7895412360</t>
-  </si>
-  <si>
-    <t>8896523014</t>
-  </si>
-  <si>
-    <t>8745963201</t>
-  </si>
-  <si>
-    <t>8899654712</t>
-  </si>
-  <si>
-    <t>8965230147</t>
-  </si>
-  <si>
-    <t>8745963210</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Option Type</t>
-  </si>
-  <si>
-    <t>Option Name</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Quants,</t>
-  </si>
-  <si>
-    <t>Verbal,Quants</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Booking</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Vimal R</t>
-  </si>
-  <si>
-    <t>Revanth B</t>
-  </si>
-  <si>
-    <t>Convert From</t>
-  </si>
-  <si>
-    <t>Converted</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Murali K</t>
-  </si>
-  <si>
-    <t>Ruban B</t>
-  </si>
-  <si>
-    <t>Jayabal A</t>
-  </si>
-  <si>
-    <t>Jai S</t>
-  </si>
-  <si>
-    <t>Sabi L</t>
-  </si>
-  <si>
-    <t>Guru R</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>ModeOfPay</t>
-  </si>
-  <si>
-    <t>PaymentDate</t>
-  </si>
-  <si>
-    <t>PreferrableClass</t>
-  </si>
-  <si>
-    <t>PreferredMonth</t>
-  </si>
-  <si>
-    <t>Transaction Id</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>DebitCard</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
-    <t>NetBanking</t>
-  </si>
-  <si>
-    <t>Googlepay</t>
-  </si>
-  <si>
-    <t>Course/Lead Status</t>
-  </si>
-  <si>
-    <t>Counselor assign/Payment For</t>
-  </si>
-  <si>
-    <t>Remarks/PreferredYear</t>
-  </si>
-  <si>
-    <t>trn987456</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>Raja M</t>
-  </si>
-  <si>
-    <t>Leela A</t>
-  </si>
-  <si>
-    <t>trn987457</t>
-  </si>
-  <si>
-    <t>trn987458</t>
-  </si>
-  <si>
-    <t>trn987459</t>
-  </si>
-  <si>
-    <t>trn987460</t>
-  </si>
-  <si>
-    <t>trn987461</t>
-  </si>
-  <si>
-    <t>trn987462</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>12/05/2019</t>
+Date 2</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Tutor 2</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>Content 2</t>
+  </si>
+  <si>
+    <t>EndTime 2</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 3</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Tutor 3</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>Content 3</t>
+  </si>
+  <si>
+    <t>EndTime 3</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 4</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Tutor 4</t>
+  </si>
+  <si>
+    <t>Topic 4</t>
+  </si>
+  <si>
+    <t>StartTime 4</t>
+  </si>
+  <si>
+    <t>EndTime 4</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 5</t>
+  </si>
+  <si>
+    <t>Subject 5</t>
+  </si>
+  <si>
+    <t>Tutor 5</t>
+  </si>
+  <si>
+    <t>Topic 5</t>
+  </si>
+  <si>
+    <t>Content 5</t>
+  </si>
+  <si>
+    <t>StartTime 5</t>
+  </si>
+  <si>
+    <t>EndTime 5</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 6</t>
+  </si>
+  <si>
+    <t>Subject 6</t>
+  </si>
+  <si>
+    <t>Tutor 6</t>
+  </si>
+  <si>
+    <t>Topic 6</t>
+  </si>
+  <si>
+    <t>Content 6</t>
+  </si>
+  <si>
+    <t>StartTime 6</t>
+  </si>
+  <si>
+    <t>EndTime 6</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 7</t>
+  </si>
+  <si>
+    <t>Subject 7</t>
+  </si>
+  <si>
+    <t>Tutor 7</t>
+  </si>
+  <si>
+    <t>Topic 7</t>
+  </si>
+  <si>
+    <t>Content 7</t>
+  </si>
+  <si>
+    <t>StartTime 7</t>
+  </si>
+  <si>
+    <t>EndTime 7</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 8</t>
+  </si>
+  <si>
+    <t>Subject 8</t>
+  </si>
+  <si>
+    <t>Tutor 8</t>
+  </si>
+  <si>
+    <t>Topic 8</t>
+  </si>
+  <si>
+    <t>Content 8</t>
+  </si>
+  <si>
+    <t>StartTime 8</t>
+  </si>
+  <si>
+    <t>EndTime 8</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 9</t>
+  </si>
+  <si>
+    <t>Subject 9</t>
+  </si>
+  <si>
+    <t>Tutor 9</t>
+  </si>
+  <si>
+    <t>Topic 9</t>
+  </si>
+  <si>
+    <t>Content 9</t>
+  </si>
+  <si>
+    <t>StartTime 9</t>
+  </si>
+  <si>
+    <t>EndTime 9</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 10</t>
+  </si>
+  <si>
+    <t>Subject 10</t>
+  </si>
+  <si>
+    <t>Tutor 10</t>
+  </si>
+  <si>
+    <t>Topic 10</t>
+  </si>
+  <si>
+    <t>Content 10</t>
+  </si>
+  <si>
+    <t>StartTime 10</t>
+  </si>
+  <si>
+    <t>EndTime 10</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 11</t>
+  </si>
+  <si>
+    <t>Subject 11</t>
+  </si>
+  <si>
+    <t>Tutor 11</t>
+  </si>
+  <si>
+    <t>Topic 11</t>
+  </si>
+  <si>
+    <t>Content 11</t>
+  </si>
+  <si>
+    <t>StartTime 11</t>
+  </si>
+  <si>
+    <t>EndTime 11</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 12</t>
+  </si>
+  <si>
+    <t>Subject 12</t>
+  </si>
+  <si>
+    <t>Tutor 12</t>
+  </si>
+  <si>
+    <t>Topic 12</t>
+  </si>
+  <si>
+    <t>Content 12</t>
+  </si>
+  <si>
+    <t>StartTime 12</t>
+  </si>
+  <si>
+    <t>EndTime 12</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 13</t>
+  </si>
+  <si>
+    <t>Subject 13</t>
+  </si>
+  <si>
+    <t>Tutor 13</t>
+  </si>
+  <si>
+    <t>Topic 13</t>
+  </si>
+  <si>
+    <t>Content 13</t>
+  </si>
+  <si>
+    <t>StartTime 13</t>
+  </si>
+  <si>
+    <t>EndTime 13</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 14</t>
+  </si>
+  <si>
+    <t>Subject 14</t>
+  </si>
+  <si>
+    <t>Tutor 14</t>
+  </si>
+  <si>
+    <t>Topic 14</t>
+  </si>
+  <si>
+    <t>Content 14</t>
+  </si>
+  <si>
+    <t>StartTime 14</t>
+  </si>
+  <si>
+    <t>EndTime 14</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 15</t>
+  </si>
+  <si>
+    <t>Subject 15</t>
+  </si>
+  <si>
+    <t>Tutor 15</t>
+  </si>
+  <si>
+    <t>Topic 15</t>
+  </si>
+  <si>
+    <t>Content 15</t>
+  </si>
+  <si>
+    <t>StartTime 15</t>
+  </si>
+  <si>
+    <t>EndTime 15</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 16</t>
+  </si>
+  <si>
+    <t>Subject 16</t>
+  </si>
+  <si>
+    <t>Tutor 16</t>
+  </si>
+  <si>
+    <t>Topic 16</t>
+  </si>
+  <si>
+    <t>Content 16</t>
+  </si>
+  <si>
+    <t>StartTime 16</t>
+  </si>
+  <si>
+    <t>EndTime 16</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 17</t>
+  </si>
+  <si>
+    <t>Subject 17</t>
+  </si>
+  <si>
+    <t>Tutor 17</t>
+  </si>
+  <si>
+    <t>Topic 17</t>
+  </si>
+  <si>
+    <t>Content 17</t>
+  </si>
+  <si>
+    <t>StartTime 17</t>
+  </si>
+  <si>
+    <t>EndTime 17</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 18</t>
+  </si>
+  <si>
+    <t>Subject 18</t>
+  </si>
+  <si>
+    <t>Tutor 18</t>
+  </si>
+  <si>
+    <t>Topic 18</t>
+  </si>
+  <si>
+    <t>Content 18</t>
+  </si>
+  <si>
+    <t>StartTime 18</t>
+  </si>
+  <si>
+    <t>EndTime 18</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 19</t>
+  </si>
+  <si>
+    <t>Subject 19</t>
+  </si>
+  <si>
+    <t>Tutor 19</t>
+  </si>
+  <si>
+    <t>Topic 19</t>
+  </si>
+  <si>
+    <t>Content 19</t>
+  </si>
+  <si>
+    <t>StartTime 19</t>
+  </si>
+  <si>
+    <t>EndTime 19</t>
+  </si>
+  <si>
+    <t>ClassStart
+Date 20</t>
+  </si>
+  <si>
+    <t>Subject 20</t>
+  </si>
+  <si>
+    <t>Tutor 20</t>
+  </si>
+  <si>
+    <t>Topic 20</t>
+  </si>
+  <si>
+    <t>Content 20</t>
+  </si>
+  <si>
+    <t>StartTime 20</t>
+  </si>
+  <si>
+    <t>EndTime 20</t>
+  </si>
+  <si>
+    <t>Subject 21</t>
+  </si>
+  <si>
+    <t>Tutor 21</t>
+  </si>
+  <si>
+    <t>Topic 21</t>
+  </si>
+  <si>
+    <t>Content 21</t>
+  </si>
+  <si>
+    <t>StartTime 21</t>
+  </si>
+  <si>
+    <t>EndTime 21</t>
+  </si>
+  <si>
+    <t>Subject 22</t>
+  </si>
+  <si>
+    <t>Tutor 22</t>
+  </si>
+  <si>
+    <t>Topic 22</t>
+  </si>
+  <si>
+    <t>Content 22</t>
+  </si>
+  <si>
+    <t>StartTime 22</t>
+  </si>
+  <si>
+    <t>EndTime 22</t>
+  </si>
+  <si>
+    <t>Subject 23</t>
+  </si>
+  <si>
+    <t>Tutor 23</t>
+  </si>
+  <si>
+    <t>Topic 23</t>
+  </si>
+  <si>
+    <t>Content 23</t>
+  </si>
+  <si>
+    <t>StartTime 23</t>
+  </si>
+  <si>
+    <t>EndTime 23</t>
+  </si>
+  <si>
+    <t>Subject 24</t>
+  </si>
+  <si>
+    <t>Tutor 24</t>
+  </si>
+  <si>
+    <t>Topic 24</t>
+  </si>
+  <si>
+    <t>Content 24</t>
+  </si>
+  <si>
+    <t>StartTime 24</t>
+  </si>
+  <si>
+    <t>EndTime 24</t>
+  </si>
+  <si>
+    <t>Subject 25</t>
+  </si>
+  <si>
+    <t>Tutor 25</t>
+  </si>
+  <si>
+    <t>Topic 25</t>
+  </si>
+  <si>
+    <t>Content 25</t>
+  </si>
+  <si>
+    <t>StartTime 25</t>
+  </si>
+  <si>
+    <t>EndTime 25</t>
+  </si>
+  <si>
+    <t>Subject 26</t>
+  </si>
+  <si>
+    <t>Tutor 26</t>
+  </si>
+  <si>
+    <t>Topic 26</t>
+  </si>
+  <si>
+    <t>Content 26</t>
+  </si>
+  <si>
+    <t>StartTime 26</t>
+  </si>
+  <si>
+    <t>EndTime 26</t>
+  </si>
+  <si>
+    <t>Subject 27</t>
+  </si>
+  <si>
+    <t>Tutor 27</t>
+  </si>
+  <si>
+    <t>Topic 27</t>
+  </si>
+  <si>
+    <t>Content 27</t>
+  </si>
+  <si>
+    <t>StartTime 27</t>
+  </si>
+  <si>
+    <t>EndTime 27</t>
+  </si>
+  <si>
+    <t>Subject 28</t>
+  </si>
+  <si>
+    <t>Tutor 28</t>
+  </si>
+  <si>
+    <t>Topic 28</t>
+  </si>
+  <si>
+    <t>Content 28</t>
+  </si>
+  <si>
+    <t>StartTime 28</t>
+  </si>
+  <si>
+    <t>EndTime 28</t>
+  </si>
+  <si>
+    <t>Subject 29</t>
+  </si>
+  <si>
+    <t>Tutor 29</t>
+  </si>
+  <si>
+    <t>Topic 29</t>
+  </si>
+  <si>
+    <t>Content 29</t>
+  </si>
+  <si>
+    <t>StartTime 29</t>
+  </si>
+  <si>
+    <t>EndTime 29</t>
+  </si>
+  <si>
+    <t>Subject 30</t>
+  </si>
+  <si>
+    <t>Tutor 30</t>
+  </si>
+  <si>
+    <t>Topic 30</t>
+  </si>
+  <si>
+    <t>Content 30</t>
+  </si>
+  <si>
+    <t>StartTime 30</t>
+  </si>
+  <si>
+    <t>EndTime 30</t>
+  </si>
+  <si>
+    <t>01/06/2020</t>
+  </si>
+  <si>
+    <t>03/13/2020</t>
+  </si>
+  <si>
+    <t>Batch/MinSize</t>
+  </si>
+  <si>
+    <t>Batch/MaxSize</t>
+  </si>
+  <si>
+    <t>ClassStart Date 1</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>01/09/2020</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>01/13/2020</t>
+  </si>
+  <si>
+    <t>01/14/2020</t>
+  </si>
+  <si>
+    <t>01/15/2020</t>
+  </si>
+  <si>
+    <t>01/16/2020</t>
+  </si>
+  <si>
+    <t>01/17/2020</t>
+  </si>
+  <si>
+    <t>01/20/2020</t>
+  </si>
+  <si>
+    <t>01/21/2020</t>
+  </si>
+  <si>
+    <t>01/22/2020</t>
+  </si>
+  <si>
+    <t>01/23/2020</t>
+  </si>
+  <si>
+    <t>01/24/2020</t>
+  </si>
+  <si>
+    <t>01/27/2020</t>
+  </si>
+  <si>
+    <t>01/28/2020</t>
+  </si>
+  <si>
+    <t>01/29/2020</t>
+  </si>
+  <si>
+    <t>01/30/2020</t>
+  </si>
+  <si>
+    <t>01/31/2020</t>
+  </si>
+  <si>
+    <t>02/03/2020</t>
+  </si>
+  <si>
+    <t>02/04/2020</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>02/06/2020</t>
+  </si>
+  <si>
+    <t>02/07/2020</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
+    <t>02/11/2020</t>
+  </si>
+  <si>
+    <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>02/13/2020</t>
+  </si>
+  <si>
+    <t>02/14/2020</t>
+  </si>
+  <si>
+    <t>0445PM</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 21</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 23</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 24</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 25</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 26</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 27</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 28</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 29</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 30</t>
+  </si>
+  <si>
+    <t>TestStart
+Date 31</t>
+  </si>
+  <si>
+    <t>Subject 31</t>
+  </si>
+  <si>
+    <t>Tutor 31</t>
+  </si>
+  <si>
+    <t>Topic 31</t>
+  </si>
+  <si>
+    <t>Content 31</t>
+  </si>
+  <si>
+    <t>StartTime 31</t>
+  </si>
+  <si>
+    <t>EndTime 31</t>
+  </si>
+  <si>
+    <t>Subject 32</t>
+  </si>
+  <si>
+    <t>Tutor 32</t>
+  </si>
+  <si>
+    <t>Topic 32</t>
+  </si>
+  <si>
+    <t>Content 32</t>
+  </si>
+  <si>
+    <t>StartTime 32</t>
+  </si>
+  <si>
+    <t>EndTime 32</t>
+  </si>
+  <si>
+    <t>Subject 33</t>
+  </si>
+  <si>
+    <t>Tutor 33</t>
+  </si>
+  <si>
+    <t>Topic 33</t>
+  </si>
+  <si>
+    <t>Content 33</t>
+  </si>
+  <si>
+    <t>StartTime 33</t>
+  </si>
+  <si>
+    <t>EndTime 33</t>
+  </si>
+  <si>
+    <t>Subject 34</t>
+  </si>
+  <si>
+    <t>Tutor 34</t>
+  </si>
+  <si>
+    <t>Topic 34</t>
+  </si>
+  <si>
+    <t>Content 34</t>
+  </si>
+  <si>
+    <t>StartTime 34</t>
+  </si>
+  <si>
+    <t>EndTime 34</t>
+  </si>
+  <si>
+    <t>Subject 35</t>
+  </si>
+  <si>
+    <t>Tutor 35</t>
+  </si>
+  <si>
+    <t>Topic 35</t>
+  </si>
+  <si>
+    <t>Content 35</t>
+  </si>
+  <si>
+    <t>StartTime 35</t>
+  </si>
+  <si>
+    <t>EndTime 35</t>
+  </si>
+  <si>
+    <t>Subject 36</t>
+  </si>
+  <si>
+    <t>Tutor 36</t>
+  </si>
+  <si>
+    <t>Topic 36</t>
+  </si>
+  <si>
+    <t>Content 36</t>
+  </si>
+  <si>
+    <t>StartTime 36</t>
+  </si>
+  <si>
+    <t>EndTime 36</t>
+  </si>
+  <si>
+    <t>Subject 37</t>
+  </si>
+  <si>
+    <t>Tutor 37</t>
+  </si>
+  <si>
+    <t>Topic 37</t>
+  </si>
+  <si>
+    <t>Content 37</t>
+  </si>
+  <si>
+    <t>StartTime 37</t>
+  </si>
+  <si>
+    <t>EndTime 37</t>
+  </si>
+  <si>
+    <t>Subject 38</t>
+  </si>
+  <si>
+    <t>Tutor 38</t>
+  </si>
+  <si>
+    <t>Topic 38</t>
+  </si>
+  <si>
+    <t>Content 38</t>
+  </si>
+  <si>
+    <t>StartTime 38</t>
+  </si>
+  <si>
+    <t>EndTime 38</t>
+  </si>
+  <si>
+    <t>Subject 39</t>
+  </si>
+  <si>
+    <t>Tutor 39</t>
+  </si>
+  <si>
+    <t>Topic 39</t>
+  </si>
+  <si>
+    <t>Content 39</t>
+  </si>
+  <si>
+    <t>StartTime 39</t>
+  </si>
+  <si>
+    <t>EndTime 39</t>
+  </si>
+  <si>
+    <t>Subject 40</t>
+  </si>
+  <si>
+    <t>Tutor 40</t>
+  </si>
+  <si>
+    <t>Topic 40</t>
+  </si>
+  <si>
+    <t>Content 40</t>
+  </si>
+  <si>
+    <t>StartTime 40</t>
+  </si>
+  <si>
+    <t>EndTime 40</t>
+  </si>
+  <si>
+    <t>02/20/2020</t>
+  </si>
+  <si>
+    <t>02/17/2020</t>
+  </si>
+  <si>
+    <t>02/18/2020</t>
+  </si>
+  <si>
+    <t>02/19/2020</t>
+  </si>
+  <si>
+    <t>02/21/2020</t>
+  </si>
+  <si>
+    <t>02/27/2020</t>
+  </si>
+  <si>
+    <t>02/24/2020</t>
+  </si>
+  <si>
+    <t>02/25/2020</t>
+  </si>
+  <si>
+    <t>02/26/2020</t>
+  </si>
+  <si>
+    <t>02/28/2020</t>
+  </si>
+  <si>
+    <t>TestStart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,6 +2631,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1813,9 +2732,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1828,6 +2744,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2110,1240 +3029,1269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AK13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="20.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="28" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="1"/>
-    <col min="31" max="31" width="12.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="28" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="12.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="1"/>
+    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5703125" style="1" customWidth="1"/>
     <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="18" style="1" customWidth="1"/>
-    <col min="39" max="39" width="32.28515625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="1"/>
+    <col min="36" max="36" width="18" style="1" customWidth="1"/>
+    <col min="37" max="37" width="32.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>165</v>
+        <v>19</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="X1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>235</v>
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>143</v>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="Y3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="2"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="2"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="K12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="R13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="C3" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y3" s="3"/>
-      <c r="AA3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="2"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="C4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="AA4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="2"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="C6" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="AA6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="2"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AK13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM13" s="1" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="R13" r:id="rId4"/>
-    <hyperlink ref="R12" r:id="rId5"/>
-    <hyperlink ref="R11" r:id="rId6"/>
-    <hyperlink ref="R10" r:id="rId7"/>
-    <hyperlink ref="R9" r:id="rId8"/>
-    <hyperlink ref="R8" r:id="rId9"/>
-    <hyperlink ref="R7" r:id="rId10"/>
-    <hyperlink ref="R6" r:id="rId11"/>
-    <hyperlink ref="R5" r:id="rId12"/>
-    <hyperlink ref="R4" r:id="rId13"/>
-    <hyperlink ref="R3" r:id="rId14"/>
-    <hyperlink ref="P13" r:id="rId15"/>
-    <hyperlink ref="P12" r:id="rId16"/>
-    <hyperlink ref="P11" r:id="rId17"/>
-    <hyperlink ref="P10" r:id="rId18"/>
-    <hyperlink ref="P9" r:id="rId19"/>
-    <hyperlink ref="P8" r:id="rId20"/>
-    <hyperlink ref="P7" r:id="rId21"/>
-    <hyperlink ref="P6" r:id="rId22"/>
-    <hyperlink ref="P5" r:id="rId23"/>
-    <hyperlink ref="P4" r:id="rId24"/>
-    <hyperlink ref="P3" r:id="rId25"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="P13" r:id="rId3"/>
+    <hyperlink ref="P12" r:id="rId4"/>
+    <hyperlink ref="P11" r:id="rId5"/>
+    <hyperlink ref="P10" r:id="rId6"/>
+    <hyperlink ref="P9" r:id="rId7"/>
+    <hyperlink ref="P8" r:id="rId8"/>
+    <hyperlink ref="P7" r:id="rId9"/>
+    <hyperlink ref="P6" r:id="rId10"/>
+    <hyperlink ref="P5" r:id="rId11"/>
+    <hyperlink ref="P4" r:id="rId12"/>
+    <hyperlink ref="P3" r:id="rId13"/>
+    <hyperlink ref="N13" r:id="rId14"/>
+    <hyperlink ref="N12" r:id="rId15"/>
+    <hyperlink ref="N11" r:id="rId16"/>
+    <hyperlink ref="N10" r:id="rId17"/>
+    <hyperlink ref="N9" r:id="rId18"/>
+    <hyperlink ref="N8" r:id="rId19"/>
+    <hyperlink ref="N7" r:id="rId20"/>
+    <hyperlink ref="N6" r:id="rId21"/>
+    <hyperlink ref="N5" r:id="rId22"/>
+    <hyperlink ref="N4" r:id="rId23"/>
+    <hyperlink ref="N3" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
@@ -3351,67 +4299,67 @@
           <x14:formula1>
             <xm:f>DATA!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C13</xm:sqref>
+          <xm:sqref>A2:A13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H13</xm:sqref>
+          <xm:sqref>F2:F13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S13</xm:sqref>
+          <xm:sqref>Q2:Q13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$C$10:$C$19</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T13</xm:sqref>
+          <xm:sqref>R2:R13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$F$9:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W13</xm:sqref>
+          <xm:sqref>U2:U13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$H$8:$H$12</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X13</xm:sqref>
+          <xm:sqref>V2:V13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$J$7:$J$19</xm:f>
           </x14:formula1>
-          <xm:sqref>AB2:AB13</xm:sqref>
+          <xm:sqref>Z2:Z13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$K$7:$K$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AC2:AC13</xm:sqref>
+          <xm:sqref>AA2:AA13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AK2:AK13</xm:sqref>
+          <xm:sqref>AI2:AI13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$A$14:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>AM2:AM13</xm:sqref>
+          <xm:sqref>AK2:AK13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$J$22:$J$39</xm:f>
           </x14:formula1>
-          <xm:sqref>AA2:AA13</xm:sqref>
+          <xm:sqref>Y2:Y13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3419,12 +4367,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,7 +4521,7 @@
         <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3700,7 +4648,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>186</v>
@@ -3802,7 +4750,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3817,8 +4765,8 @@
       <c r="A23" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>498</v>
+      <c r="I23" s="18" t="s">
+        <v>462</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>252</v>
@@ -3831,8 +4779,8 @@
       <c r="H24" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>499</v>
+      <c r="I24" s="18" t="s">
+        <v>463</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>253</v>
@@ -3840,16 +4788,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="I25" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>259</v>
@@ -3857,13 +4805,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>312</v>
       </c>
       <c r="I26" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>261</v>
@@ -3877,7 +4825,7 @@
         <v>313</v>
       </c>
       <c r="I27" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>260</v>
@@ -3885,13 +4833,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>504</v>
       </c>
       <c r="B28" t="s">
         <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>315</v>
@@ -3900,7 +4848,7 @@
         <v>1001</v>
       </c>
       <c r="G28" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>204</v>
@@ -3908,13 +4856,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>506</v>
       </c>
       <c r="B29" t="s">
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>316</v>
@@ -3923,7 +4871,7 @@
         <v>1002</v>
       </c>
       <c r="G29" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>204</v>
@@ -3931,7 +4879,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>317</v>
@@ -3940,10 +4888,10 @@
         <v>1003</v>
       </c>
       <c r="G30" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>205</v>
@@ -3951,16 +4899,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="E31">
         <v>1004</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>183</v>
@@ -3968,16 +4916,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E32">
         <v>1005</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="H32" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>206</v>
@@ -3985,7 +4933,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="E33">
         <v>1006</v>
@@ -3996,7 +4944,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="E34">
         <v>1007</v>
@@ -4007,7 +4955,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="E35">
         <v>1008</v>
@@ -4018,7 +4966,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>508</v>
       </c>
       <c r="E36">
         <v>1009</v>
@@ -4029,13 +4977,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="E37">
         <v>1010</v>
@@ -4046,13 +4994,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="E38">
         <v>1011</v>
@@ -4063,13 +5011,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="E39">
         <v>1012</v>
@@ -4083,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="E40">
         <v>1013</v>
@@ -4148,6 +5096,39 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>12</v>
+      </c>
+      <c r="E48">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +5145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -4256,31 +5237,31 @@
         <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>311</v>
@@ -4295,7 +5276,7 @@
         <v>297</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>321</v>
@@ -4309,31 +5290,31 @@
         <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>312</v>
@@ -4348,7 +5329,7 @@
         <v>298</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>322</v>
@@ -4362,31 +5343,31 @@
         <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>311</v>
@@ -4401,7 +5382,7 @@
         <v>299</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>323</v>
@@ -4421,16 +5402,16 @@
         <v>276</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -4439,7 +5420,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>311</v>
@@ -4454,7 +5435,7 @@
         <v>300</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>324</v>
@@ -4474,16 +5455,16 @@
         <v>277</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>227</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -4492,7 +5473,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>311</v>
@@ -4507,7 +5488,7 @@
         <v>301</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>325</v>
@@ -4527,16 +5508,16 @@
         <v>278</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -4545,7 +5526,7 @@
         <v>100</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>313</v>
@@ -4560,7 +5541,7 @@
         <v>302</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>326</v>
@@ -4580,13 +5561,13 @@
         <v>279</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -4595,7 +5576,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>313</v>
@@ -4610,7 +5591,7 @@
         <v>303</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>327</v>
@@ -4624,19 +5605,19 @@
         <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -4645,7 +5626,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>313</v>
@@ -4660,7 +5641,7 @@
         <v>304</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>328</v>
@@ -4683,10 +5664,10 @@
         <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -4695,7 +5676,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>313</v>
@@ -4724,28 +5705,28 @@
         <v>293</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>313</v>
@@ -4760,7 +5741,7 @@
         <v>306</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>330</v>
@@ -4783,19 +5764,19 @@
         <v>149</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>313</v>
@@ -4810,7 +5791,7 @@
         <v>307</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>331</v>
@@ -4821,7 +5802,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>84</v>
@@ -4830,13 +5811,13 @@
         <v>272</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -4845,7 +5826,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>313</v>
@@ -4874,19 +5855,19 @@
         <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>12</v>
@@ -4910,7 +5891,7 @@
         <v>309</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>332</v>
@@ -4930,13 +5911,13 @@
         <v>335</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>12</v>
@@ -5021,499 +6002,1938 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:KK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="7.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="11.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="11" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="11.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13" style="1" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="1"/>
+    <col min="36" max="36" width="11" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13" style="1" customWidth="1"/>
+    <col min="41" max="42" width="9.140625" style="1"/>
+    <col min="43" max="43" width="11" style="1" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="1"/>
+    <col min="45" max="45" width="11.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="13" style="1" customWidth="1"/>
+    <col min="48" max="49" width="9.140625" style="1"/>
+    <col min="50" max="50" width="11" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" style="1"/>
+    <col min="52" max="52" width="11.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="13" style="1" customWidth="1"/>
+    <col min="55" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="11" style="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="1"/>
+    <col min="59" max="59" width="11.42578125" style="1" customWidth="1"/>
+    <col min="60" max="60" width="10.28515625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="13" style="1" customWidth="1"/>
+    <col min="62" max="63" width="9.140625" style="1"/>
+    <col min="64" max="64" width="11" style="1" customWidth="1"/>
+    <col min="65" max="65" width="9.140625" style="1"/>
+    <col min="66" max="66" width="11.42578125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.28515625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="13" style="1" customWidth="1"/>
+    <col min="69" max="70" width="9.140625" style="1"/>
+    <col min="71" max="71" width="11" style="1" customWidth="1"/>
+    <col min="72" max="72" width="9.140625" style="1"/>
+    <col min="73" max="73" width="11.42578125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="10.28515625" style="1" customWidth="1"/>
+    <col min="75" max="75" width="13" style="1" customWidth="1"/>
+    <col min="76" max="77" width="9.140625" style="1"/>
+    <col min="78" max="78" width="11" style="1" customWidth="1"/>
+    <col min="79" max="79" width="9.140625" style="1"/>
+    <col min="80" max="80" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="86" width="9.140625" style="1"/>
+    <col min="87" max="87" width="11.42578125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="10.28515625" style="1" customWidth="1"/>
+    <col min="89" max="89" width="13" style="1" customWidth="1"/>
+    <col min="90" max="91" width="9.140625" style="1"/>
+    <col min="92" max="92" width="11" style="1" customWidth="1"/>
+    <col min="93" max="93" width="9.140625" style="1"/>
+    <col min="94" max="94" width="11.42578125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="10.28515625" style="1" customWidth="1"/>
+    <col min="96" max="96" width="13" style="1" customWidth="1"/>
+    <col min="97" max="98" width="9.140625" style="1"/>
+    <col min="99" max="99" width="11" style="1" customWidth="1"/>
+    <col min="100" max="100" width="9.140625" style="1"/>
+    <col min="101" max="101" width="11.42578125" style="1" customWidth="1"/>
+    <col min="102" max="102" width="10.28515625" style="1" customWidth="1"/>
+    <col min="103" max="103" width="13" style="1" customWidth="1"/>
+    <col min="104" max="105" width="9.140625" style="1"/>
+    <col min="106" max="106" width="11" style="1" customWidth="1"/>
+    <col min="107" max="107" width="9.140625" style="1"/>
+    <col min="108" max="108" width="11.42578125" style="1" customWidth="1"/>
+    <col min="109" max="109" width="10.28515625" style="1" customWidth="1"/>
+    <col min="110" max="110" width="13" style="1" customWidth="1"/>
+    <col min="111" max="112" width="9.140625" style="1"/>
+    <col min="113" max="113" width="11" style="1" customWidth="1"/>
+    <col min="114" max="114" width="9.140625" style="1"/>
+    <col min="115" max="115" width="11.42578125" style="1" customWidth="1"/>
+    <col min="116" max="116" width="10.28515625" style="1" customWidth="1"/>
+    <col min="117" max="117" width="13" style="1" customWidth="1"/>
+    <col min="118" max="119" width="9.140625" style="1"/>
+    <col min="120" max="120" width="11" style="1" customWidth="1"/>
+    <col min="121" max="121" width="9.140625" style="1"/>
+    <col min="122" max="122" width="11.42578125" style="1" customWidth="1"/>
+    <col min="123" max="123" width="10.28515625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="13" style="1" customWidth="1"/>
+    <col min="125" max="126" width="9.140625" style="1"/>
+    <col min="127" max="127" width="11" style="1" customWidth="1"/>
+    <col min="128" max="128" width="9.140625" style="1"/>
+    <col min="129" max="129" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="135" width="9.140625" style="1"/>
+    <col min="136" max="136" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="142" width="9.140625" style="1"/>
+    <col min="143" max="143" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="149" width="9.140625" style="1"/>
+    <col min="150" max="150" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="156" width="9.140625" style="1"/>
+    <col min="157" max="157" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="163" width="9.140625" style="1"/>
+    <col min="164" max="164" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="168" width="9.140625" style="1"/>
+    <col min="169" max="169" width="10.7109375" style="1" customWidth="1"/>
+    <col min="170" max="170" width="10.42578125" style="1" customWidth="1"/>
+    <col min="171" max="171" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="177" width="9.140625" style="1"/>
+    <col min="178" max="178" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="184" width="9.140625" style="1"/>
+    <col min="185" max="185" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="191" width="9.140625" style="1"/>
+    <col min="192" max="192" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="198" width="9.140625" style="1"/>
+    <col min="199" max="199" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="205" width="9.140625" style="1"/>
+    <col min="206" max="206" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="212" width="9.140625" style="1"/>
+    <col min="213" max="213" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="219" width="9.140625" style="1"/>
+    <col min="220" max="220" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="12.7109375" style="1" customWidth="1"/>
+    <col min="222" max="222" width="12" style="1" customWidth="1"/>
+    <col min="223" max="223" width="12.140625" style="1" customWidth="1"/>
+    <col min="224" max="224" width="13" style="1" customWidth="1"/>
+    <col min="225" max="225" width="12" style="1" customWidth="1"/>
+    <col min="226" max="226" width="11.5703125" style="1" customWidth="1"/>
+    <col min="227" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:297" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="O1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>386</v>
-      </c>
-      <c r="R1" t="s">
-        <v>387</v>
-      </c>
-      <c r="S1" t="s">
-        <v>388</v>
-      </c>
-      <c r="T1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K1" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="BG1" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="CB1" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="CI1" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="CP1" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="CW1" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="DD1" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="DK1" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="DR1" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="DY1" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="EF1" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="EM1" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="ET1" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="FA1" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="FH1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="FO1" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="FV1" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="GC1" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="GJ1" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="GQ1" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="GX1" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="HE1" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="HL1" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="HS1" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="HZ1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="IG1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="IN1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="IU1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="JB1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="JI1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="JP1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="JW1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="KD1" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="KK1" s="11"/>
+    </row>
+    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>360</v>
+        <v>716</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>361</v>
+        <v>717</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>360</v>
+        <v>512</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AQ2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AX2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="AY2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BE2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="BF2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BL2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="BM2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BS2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="BT2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BZ2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="CA2" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="CG2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="CH2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="CN2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="CO2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="CR2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="CU2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="CV2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="DB2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="DC2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="DI2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="DJ2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="DP2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="DQ2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="DW2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="DX2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="ED2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="EE2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="EK2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="EL2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="ER2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="ES2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="EY2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="EZ2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="FB2" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>390</v>
+      <c r="FC2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="FF2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="FG2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="FM2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="FN2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="FT2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="FU2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="FW2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="FX2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="FY2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="FZ2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="GA2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="GB2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="GG2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="GH2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="GI2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="GM2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="GN2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="GO2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="GP2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="GQ2" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="GT2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="GV2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="GW2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="GX2" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="GY2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="HB2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="HC2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="HD2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="HE2" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="HF2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="HG2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="HH2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="HI2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="HJ2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="HK2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="HL2" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="HM2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="HN2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="HO2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="HP2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="HQ2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="HR2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="HS2" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="HT2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="HU2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="HV2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="HW2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="HX2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="HY2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="HZ2" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="IA2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="IB2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="IC2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="ID2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="IE2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="IF2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="IG2" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="IH2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="II2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="IJ2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="IK2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="IL2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="IM2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="IN2" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="IO2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="IP2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="IQ2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="IR2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="IS2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="IT2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="IU2" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="IV2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="IW2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="IX2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="IY2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="IZ2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="JA2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="JB2" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="JC2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="JD2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="JE2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="JF2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="JG2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="JH2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="JI2" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="JJ2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="JK2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="JL2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="JM2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="JN2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="JO2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="JP2" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="JQ2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="JR2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="JS2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="JT2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="JU2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="JV2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="JW2" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="JX2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="JY2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="JZ2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="KA2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="KB2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="KC2" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="KD2" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="KE2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="KF2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="KG2" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="KH2" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="KI2" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="KJ2" s="23" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -5521,7 +7941,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$G$1:$G$3</xm:f>
@@ -5550,7 +7970,7 @@
           <x14:formula1>
             <xm:f>DATA!$G$12:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G9 L2:M9</xm:sqref>
+          <xm:sqref>G2:G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5560,15 +7980,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATA!$A$28:$A$39</xm:f>
+            <xm:f>DATA!$E$43:$E$54</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K9 P2:P9</xm:sqref>
+          <xm:sqref>S2:S9 IP2 DT2:DT9 Z2:Z9 AG2:AG9 AN2:AN9 BB2:BB9 BP2:BP9 BI2:BI9 DM2:DM9 CK2:CK9 CR2:CR9 CY2:CY9 CD2 EA2 EH2 AU2:AU9 EO2 EV2 BW2:BW9 HN2 FC2 FJ2 FQ2 FX2 DF2:DF9 GL2 GE2 GS2 GZ2 HG2 JD2 IW2 HU2 IB2 II2 JK2 JR2 JY2 KF2 K2:K9 L9 M5:M9 N2:N9 O5:O9 P5:P9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$C$28:$C$29</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O9</xm:sqref>
+          <xm:sqref>R2:R9 DS2:DS9 Y2:Y9 AF2:AF9 AM2:AM9 BA2:BA9 BO2:BO9 BH2:BH9 DL2:DL9 CJ2:CJ9 CQ2:CQ9 CX2:CX9 CC2 DZ2 EG2 AT2:AT9 EN2 EU2 BV2:BV9 HM2 FB2 FI2 FP2 FW2 DE2:DE9 GK2 GD2 GR2 GY2 HF2 JC2 IV2 HT2 IA2 IH2 JJ2 JQ2 JX2 KE2 IO2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5576,18 +7996,24 @@
           </x14:formula1>
           <xm:sqref>C2:C9</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATA!$G$12:$G$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L8 M2:M4 O2:O4 P2:P4</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,16 +8025,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,10 +8042,10 @@
         <v>267</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,7 +8056,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5657,12 +8083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,342 +8107,342 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>495</v>
+      <c r="A2" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>496</v>
+      <c r="A3" s="22" t="s">
+        <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>503</v>
+      <c r="A4" s="19" t="s">
+        <v>467</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>504</v>
+      <c r="A5" s="20" t="s">
+        <v>468</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>505</v>
+      <c r="A6" s="21" t="s">
+        <v>469</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>506</v>
+      <c r="A7" s="20" t="s">
+        <v>470</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>507</v>
+      <c r="A8" s="21" t="s">
+        <v>471</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>508</v>
+      <c r="A9" s="20" t="s">
+        <v>472</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="C11" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOWNLOADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse workspace\TestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Batch" sheetId="6" r:id="rId5"/>
     <sheet name="Master" sheetId="7" r:id="rId6"/>
     <sheet name="Lead Assign Details" sheetId="8" r:id="rId7"/>
+    <sheet name="Logs" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="850">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -2559,13 +2560,67 @@
   </si>
   <si>
     <t>TestStart</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>gjgdfudfyu</t>
+  </si>
+  <si>
+    <t>fgsdfgudfu</t>
+  </si>
+  <si>
+    <t>anand@learnetex.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()_</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Loginform</t>
+  </si>
+  <si>
+    <t>B.H:anand</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Enter User Mail-ID &amp; Password</t>
+  </si>
+  <si>
+    <t>Login Failed. Wrong Username or Password!</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2638,8 +2693,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2655,6 +2717,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2707,7 +2781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -2748,6 +2822,11 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3029,16 +3108,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,27 +3129,68 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://invalid.uri/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3079,50 +3199,50 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="28" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="12.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1"/>
-    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="18" style="1" customWidth="1"/>
-    <col min="37" max="37" width="32.28515625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.140625" style="1" collapsed="1"/>
+    <col min="29" max="29" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="1" collapsed="1"/>
+    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
@@ -3151,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
@@ -3261,10 +3381,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>50</v>
@@ -3347,10 +3467,10 @@
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>47</v>
@@ -3435,10 +3555,10 @@
         <v>95</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>48</v>
@@ -3523,10 +3643,10 @@
         <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>49</v>
@@ -3608,10 +3728,10 @@
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>50</v>
@@ -3696,10 +3816,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>51</v>
@@ -3785,10 +3905,10 @@
         <v>96</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>52</v>
@@ -3871,10 +3991,10 @@
         <v>97</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>53</v>
@@ -3954,10 +4074,10 @@
         <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>54</v>
@@ -4037,10 +4157,10 @@
         <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>101</v>
@@ -4120,10 +4240,10 @@
         <v>45</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>102</v>
@@ -4203,10 +4323,10 @@
         <v>99</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>832</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>833</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>103</v>
@@ -4377,14 +4497,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5155,25 +5275,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6012,147 +6132,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="7.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="11.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="11" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13" style="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" style="1"/>
-    <col min="36" max="36" width="11" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="1"/>
-    <col min="38" max="38" width="11.42578125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="13" style="1" customWidth="1"/>
-    <col min="41" max="42" width="9.140625" style="1"/>
-    <col min="43" max="43" width="11" style="1" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="11.42578125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.28515625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13" style="1" customWidth="1"/>
-    <col min="48" max="49" width="9.140625" style="1"/>
-    <col min="50" max="50" width="11" style="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="1"/>
-    <col min="52" max="52" width="11.42578125" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.28515625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="13" style="1" customWidth="1"/>
-    <col min="55" max="56" width="9.140625" style="1"/>
-    <col min="57" max="57" width="11" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9.140625" style="1"/>
-    <col min="59" max="59" width="11.42578125" style="1" customWidth="1"/>
-    <col min="60" max="60" width="10.28515625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="13" style="1" customWidth="1"/>
-    <col min="62" max="63" width="9.140625" style="1"/>
-    <col min="64" max="64" width="11" style="1" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" style="1"/>
-    <col min="66" max="66" width="11.42578125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.28515625" style="1" customWidth="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1"/>
-    <col min="69" max="70" width="9.140625" style="1"/>
-    <col min="71" max="71" width="11" style="1" customWidth="1"/>
-    <col min="72" max="72" width="9.140625" style="1"/>
-    <col min="73" max="73" width="11.42578125" style="1" customWidth="1"/>
-    <col min="74" max="74" width="10.28515625" style="1" customWidth="1"/>
-    <col min="75" max="75" width="13" style="1" customWidth="1"/>
-    <col min="76" max="77" width="9.140625" style="1"/>
-    <col min="78" max="78" width="11" style="1" customWidth="1"/>
-    <col min="79" max="79" width="9.140625" style="1"/>
-    <col min="80" max="80" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="86" width="9.140625" style="1"/>
-    <col min="87" max="87" width="11.42578125" style="1" customWidth="1"/>
-    <col min="88" max="88" width="10.28515625" style="1" customWidth="1"/>
-    <col min="89" max="89" width="13" style="1" customWidth="1"/>
-    <col min="90" max="91" width="9.140625" style="1"/>
-    <col min="92" max="92" width="11" style="1" customWidth="1"/>
-    <col min="93" max="93" width="9.140625" style="1"/>
-    <col min="94" max="94" width="11.42578125" style="1" customWidth="1"/>
-    <col min="95" max="95" width="10.28515625" style="1" customWidth="1"/>
-    <col min="96" max="96" width="13" style="1" customWidth="1"/>
-    <col min="97" max="98" width="9.140625" style="1"/>
-    <col min="99" max="99" width="11" style="1" customWidth="1"/>
-    <col min="100" max="100" width="9.140625" style="1"/>
-    <col min="101" max="101" width="11.42578125" style="1" customWidth="1"/>
-    <col min="102" max="102" width="10.28515625" style="1" customWidth="1"/>
-    <col min="103" max="103" width="13" style="1" customWidth="1"/>
-    <col min="104" max="105" width="9.140625" style="1"/>
-    <col min="106" max="106" width="11" style="1" customWidth="1"/>
-    <col min="107" max="107" width="9.140625" style="1"/>
-    <col min="108" max="108" width="11.42578125" style="1" customWidth="1"/>
-    <col min="109" max="109" width="10.28515625" style="1" customWidth="1"/>
-    <col min="110" max="110" width="13" style="1" customWidth="1"/>
-    <col min="111" max="112" width="9.140625" style="1"/>
-    <col min="113" max="113" width="11" style="1" customWidth="1"/>
-    <col min="114" max="114" width="9.140625" style="1"/>
-    <col min="115" max="115" width="11.42578125" style="1" customWidth="1"/>
-    <col min="116" max="116" width="10.28515625" style="1" customWidth="1"/>
-    <col min="117" max="117" width="13" style="1" customWidth="1"/>
-    <col min="118" max="119" width="9.140625" style="1"/>
-    <col min="120" max="120" width="11" style="1" customWidth="1"/>
-    <col min="121" max="121" width="9.140625" style="1"/>
-    <col min="122" max="122" width="11.42578125" style="1" customWidth="1"/>
-    <col min="123" max="123" width="10.28515625" style="1" customWidth="1"/>
-    <col min="124" max="124" width="13" style="1" customWidth="1"/>
-    <col min="125" max="126" width="9.140625" style="1"/>
-    <col min="127" max="127" width="11" style="1" customWidth="1"/>
-    <col min="128" max="128" width="9.140625" style="1"/>
-    <col min="129" max="129" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="135" width="9.140625" style="1"/>
-    <col min="136" max="136" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="142" width="9.140625" style="1"/>
-    <col min="143" max="143" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="149" width="9.140625" style="1"/>
-    <col min="150" max="150" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="156" width="9.140625" style="1"/>
-    <col min="157" max="157" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="163" width="9.140625" style="1"/>
-    <col min="164" max="164" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="168" width="9.140625" style="1"/>
-    <col min="169" max="169" width="10.7109375" style="1" customWidth="1"/>
-    <col min="170" max="170" width="10.42578125" style="1" customWidth="1"/>
-    <col min="171" max="171" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="177" width="9.140625" style="1"/>
-    <col min="178" max="178" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="184" width="9.140625" style="1"/>
-    <col min="185" max="185" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="191" width="9.140625" style="1"/>
-    <col min="192" max="192" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="198" width="9.140625" style="1"/>
-    <col min="199" max="199" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="205" width="9.140625" style="1"/>
-    <col min="206" max="206" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="207" max="212" width="9.140625" style="1"/>
-    <col min="213" max="213" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="214" max="219" width="9.140625" style="1"/>
-    <col min="220" max="220" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="12.7109375" style="1" customWidth="1"/>
-    <col min="222" max="222" width="12" style="1" customWidth="1"/>
-    <col min="223" max="223" width="12.140625" style="1" customWidth="1"/>
-    <col min="224" max="224" width="13" style="1" customWidth="1"/>
-    <col min="225" max="225" width="12" style="1" customWidth="1"/>
-    <col min="226" max="226" width="11.5703125" style="1" customWidth="1"/>
-    <col min="227" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="7.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="8.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="9.140625" style="1" collapsed="1"/>
+    <col min="22" max="22" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="1" collapsed="1"/>
+    <col min="24" max="24" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="9.140625" style="1" collapsed="1"/>
+    <col min="29" max="29" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.140625" style="1" collapsed="1"/>
+    <col min="31" max="31" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="1" collapsed="1"/>
+    <col min="36" max="36" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.140625" style="1" collapsed="1"/>
+    <col min="38" max="38" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="42" width="9.140625" style="1" collapsed="1"/>
+    <col min="43" max="43" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="9.140625" style="1" collapsed="1"/>
+    <col min="45" max="45" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="9.140625" style="1" collapsed="1"/>
+    <col min="50" max="50" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="9.140625" style="1" collapsed="1"/>
+    <col min="52" max="52" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="9.140625" style="1" collapsed="1"/>
+    <col min="57" max="57" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="9.140625" style="1" collapsed="1"/>
+    <col min="59" max="59" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="63" width="9.140625" style="1" collapsed="1"/>
+    <col min="64" max="64" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="9.140625" style="1" collapsed="1"/>
+    <col min="66" max="66" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="70" width="9.140625" style="1" collapsed="1"/>
+    <col min="71" max="71" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="9.140625" style="1" collapsed="1"/>
+    <col min="73" max="73" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="77" width="9.140625" style="1" collapsed="1"/>
+    <col min="78" max="78" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="9.140625" style="1" collapsed="1"/>
+    <col min="80" max="80" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="86" width="9.140625" style="1" collapsed="1"/>
+    <col min="87" max="87" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="91" width="9.140625" style="1" collapsed="1"/>
+    <col min="92" max="92" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="9.140625" style="1" collapsed="1"/>
+    <col min="94" max="94" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="98" width="9.140625" style="1" collapsed="1"/>
+    <col min="99" max="99" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="9.140625" style="1" collapsed="1"/>
+    <col min="101" max="101" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="105" width="9.140625" style="1" collapsed="1"/>
+    <col min="106" max="106" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="9.140625" style="1" collapsed="1"/>
+    <col min="108" max="108" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="112" width="9.140625" style="1" collapsed="1"/>
+    <col min="113" max="113" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="9.140625" style="1" collapsed="1"/>
+    <col min="115" max="115" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="118" max="119" width="9.140625" style="1" collapsed="1"/>
+    <col min="120" max="120" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="121" max="121" width="9.140625" style="1" collapsed="1"/>
+    <col min="122" max="122" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="126" width="9.140625" style="1" collapsed="1"/>
+    <col min="127" max="127" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="9.140625" style="1" collapsed="1"/>
+    <col min="129" max="129" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="130" max="135" width="9.140625" style="1" collapsed="1"/>
+    <col min="136" max="136" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="137" max="142" width="9.140625" style="1" collapsed="1"/>
+    <col min="143" max="143" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="149" width="9.140625" style="1" collapsed="1"/>
+    <col min="150" max="150" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="156" width="9.140625" style="1" collapsed="1"/>
+    <col min="157" max="157" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="158" max="163" width="9.140625" style="1" collapsed="1"/>
+    <col min="164" max="164" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="165" max="168" width="9.140625" style="1" collapsed="1"/>
+    <col min="169" max="169" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="170" max="170" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="172" max="177" width="9.140625" style="1" collapsed="1"/>
+    <col min="178" max="178" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="184" width="9.140625" style="1" collapsed="1"/>
+    <col min="185" max="185" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="186" max="191" width="9.140625" style="1" collapsed="1"/>
+    <col min="192" max="192" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="193" max="198" width="9.140625" style="1" collapsed="1"/>
+    <col min="199" max="199" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="200" max="205" width="9.140625" style="1" collapsed="1"/>
+    <col min="206" max="206" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="207" max="212" width="9.140625" style="1" collapsed="1"/>
+    <col min="213" max="213" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="214" max="219" width="9.140625" style="1" collapsed="1"/>
+    <col min="220" max="220" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="221" max="221" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="222" max="222" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="223" max="223" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="224" max="224" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="225" max="225" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="226" max="226" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="227" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:297" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8018,9 +8138,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8093,16 +8213,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8479,4 +8599,150 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,27 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse workspace\TestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="575" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="10" r:id="rId1"/>
+    <sheet name="Login" sheetId="12" r:id="rId1"/>
     <sheet name="Lead Entry" sheetId="1" r:id="rId2"/>
     <sheet name="DATA" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Employee" sheetId="5" r:id="rId4"/>
     <sheet name="Batch" sheetId="6" r:id="rId5"/>
     <sheet name="Master" sheetId="7" r:id="rId6"/>
     <sheet name="Lead Assign Details" sheetId="8" r:id="rId7"/>
-    <sheet name="Logs" sheetId="11" r:id="rId8"/>
+    <sheet name="Logs" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="851">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -2571,9 +2571,6 @@
     <t>gjgdfudfyu</t>
   </si>
   <si>
-    <t>fgsdfgudfu</t>
-  </si>
-  <si>
     <t>anand@learnetex.com</t>
   </si>
   <si>
@@ -2595,31 +2592,38 @@
     <t>B.H:anand</t>
   </si>
   <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Enter User Mail-ID &amp; Password</t>
+  </si>
+  <si>
+    <t>Login Failed. Wrong Username or Password!</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>ActualResult</t>
-  </si>
-  <si>
-    <t>Enter User Mail-ID &amp; Password</t>
-  </si>
-  <si>
-    <t>Login Failed. Wrong Username or Password!</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>jsdhfjsdfj</t>
+  </si>
+  <si>
+    <t>ghsdfdjkhf</t>
+  </si>
+  <si>
+    <t>Pass123456</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2781,7 +2785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -2827,6 +2831,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3108,89 +3113,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="A3" sqref="A3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B6" t="s">
-        <v>843</v>
+        <v>835</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://invalid.uri/"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3205,44 +3219,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="1" collapsed="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.140625" style="1" collapsed="1"/>
-    <col min="29" max="29" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.140625" style="1" collapsed="1"/>
-    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" style="1" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" style="1" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="28.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="28" max="28" style="1" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="31" max="31" style="1" width="9.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
+    <col min="38" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
@@ -4497,14 +4511,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5267,33 +5281,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="30.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="20" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -6132,147 +6146,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="7.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="8.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="9.140625" style="1" collapsed="1"/>
-    <col min="22" max="22" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" style="1" collapsed="1"/>
-    <col min="24" max="24" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="28" width="9.140625" style="1" collapsed="1"/>
-    <col min="29" max="29" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.140625" style="1" collapsed="1"/>
-    <col min="31" max="31" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="1" collapsed="1"/>
-    <col min="36" max="36" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.140625" style="1" collapsed="1"/>
-    <col min="38" max="38" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="42" width="9.140625" style="1" collapsed="1"/>
-    <col min="43" max="43" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="9.140625" style="1" collapsed="1"/>
-    <col min="45" max="45" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="49" width="9.140625" style="1" collapsed="1"/>
-    <col min="50" max="50" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="9.140625" style="1" collapsed="1"/>
-    <col min="52" max="52" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="56" width="9.140625" style="1" collapsed="1"/>
-    <col min="57" max="57" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="9.140625" style="1" collapsed="1"/>
-    <col min="59" max="59" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="63" width="9.140625" style="1" collapsed="1"/>
-    <col min="64" max="64" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="9.140625" style="1" collapsed="1"/>
-    <col min="66" max="66" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="70" width="9.140625" style="1" collapsed="1"/>
-    <col min="71" max="71" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="9.140625" style="1" collapsed="1"/>
-    <col min="73" max="73" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="77" width="9.140625" style="1" collapsed="1"/>
-    <col min="78" max="78" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="9.140625" style="1" collapsed="1"/>
-    <col min="80" max="80" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="86" width="9.140625" style="1" collapsed="1"/>
-    <col min="87" max="87" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="91" width="9.140625" style="1" collapsed="1"/>
-    <col min="92" max="92" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="9.140625" style="1" collapsed="1"/>
-    <col min="94" max="94" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="98" width="9.140625" style="1" collapsed="1"/>
-    <col min="99" max="99" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="9.140625" style="1" collapsed="1"/>
-    <col min="101" max="101" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="105" width="9.140625" style="1" collapsed="1"/>
-    <col min="106" max="106" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="9.140625" style="1" collapsed="1"/>
-    <col min="108" max="108" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="112" width="9.140625" style="1" collapsed="1"/>
-    <col min="113" max="113" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="9.140625" style="1" collapsed="1"/>
-    <col min="115" max="115" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="116" max="116" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="117" max="117" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="118" max="119" width="9.140625" style="1" collapsed="1"/>
-    <col min="120" max="120" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="121" max="121" width="9.140625" style="1" collapsed="1"/>
-    <col min="122" max="122" width="11.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="10.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="126" width="9.140625" style="1" collapsed="1"/>
-    <col min="127" max="127" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="9.140625" style="1" collapsed="1"/>
-    <col min="129" max="129" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="135" width="9.140625" style="1" collapsed="1"/>
-    <col min="136" max="136" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="142" width="9.140625" style="1" collapsed="1"/>
-    <col min="143" max="143" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="149" width="9.140625" style="1" collapsed="1"/>
-    <col min="150" max="150" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="156" width="9.140625" style="1" collapsed="1"/>
-    <col min="157" max="157" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="158" max="163" width="9.140625" style="1" collapsed="1"/>
-    <col min="164" max="164" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="165" max="168" width="9.140625" style="1" collapsed="1"/>
-    <col min="169" max="169" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="170" max="170" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="177" width="9.140625" style="1" collapsed="1"/>
-    <col min="178" max="178" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="184" width="9.140625" style="1" collapsed="1"/>
-    <col min="185" max="185" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="186" max="191" width="9.140625" style="1" collapsed="1"/>
-    <col min="192" max="192" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="193" max="198" width="9.140625" style="1" collapsed="1"/>
-    <col min="199" max="199" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="200" max="205" width="9.140625" style="1" collapsed="1"/>
-    <col min="206" max="206" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="207" max="212" width="9.140625" style="1" collapsed="1"/>
-    <col min="213" max="213" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="214" max="219" width="9.140625" style="1" collapsed="1"/>
-    <col min="220" max="220" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="221" max="221" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="222" max="222" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="223" max="223" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="224" max="224" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="225" max="225" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="226" max="226" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="227" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="23" max="23" style="1" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="27" max="28" style="1" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="30" max="30" style="1" width="9.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="34" max="35" style="1" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="37" max="37" style="1" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="41" max="42" style="1" width="9.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="44" max="44" style="1" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="48" max="49" style="1" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="51" max="51" style="1" width="9.140625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="55" max="56" style="1" width="9.140625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="58" max="58" style="1" width="9.140625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="62" max="63" style="1" width="9.140625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="65" max="65" style="1" width="9.140625" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="69" max="70" style="1" width="9.140625" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="72" max="72" style="1" width="9.140625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="75" max="75" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="76" max="77" style="1" width="9.140625" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="79" max="79" style="1" width="9.140625" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="81" max="86" style="1" width="9.140625" collapsed="true"/>
+    <col min="87" max="87" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="88" max="88" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="90" max="91" style="1" width="9.140625" collapsed="true"/>
+    <col min="92" max="92" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="93" max="93" style="1" width="9.140625" collapsed="true"/>
+    <col min="94" max="94" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="95" max="95" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="96" max="96" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="97" max="98" style="1" width="9.140625" collapsed="true"/>
+    <col min="99" max="99" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="100" max="100" style="1" width="9.140625" collapsed="true"/>
+    <col min="101" max="101" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="102" max="102" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="104" max="105" style="1" width="9.140625" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="107" max="107" style="1" width="9.140625" collapsed="true"/>
+    <col min="108" max="108" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="109" max="109" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="111" max="112" style="1" width="9.140625" collapsed="true"/>
+    <col min="113" max="113" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="114" max="114" style="1" width="9.140625" collapsed="true"/>
+    <col min="115" max="115" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="116" max="116" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="117" max="117" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="118" max="119" style="1" width="9.140625" collapsed="true"/>
+    <col min="120" max="120" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="121" max="121" style="1" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="123" max="123" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="124" max="124" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="125" max="126" style="1" width="9.140625" collapsed="true"/>
+    <col min="127" max="127" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="128" max="128" style="1" width="9.140625" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="130" max="135" style="1" width="9.140625" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="137" max="142" style="1" width="9.140625" collapsed="true"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="144" max="149" style="1" width="9.140625" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="151" max="156" style="1" width="9.140625" collapsed="true"/>
+    <col min="157" max="157" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="158" max="163" style="1" width="9.140625" collapsed="true"/>
+    <col min="164" max="164" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="165" max="168" style="1" width="9.140625" collapsed="true"/>
+    <col min="169" max="169" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="170" max="170" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="171" max="171" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="172" max="177" style="1" width="9.140625" collapsed="true"/>
+    <col min="178" max="178" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="179" max="184" style="1" width="9.140625" collapsed="true"/>
+    <col min="185" max="185" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="186" max="191" style="1" width="9.140625" collapsed="true"/>
+    <col min="192" max="192" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="193" max="198" style="1" width="9.140625" collapsed="true"/>
+    <col min="199" max="199" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="200" max="205" style="1" width="9.140625" collapsed="true"/>
+    <col min="206" max="206" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="207" max="212" style="1" width="9.140625" collapsed="true"/>
+    <col min="213" max="213" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="214" max="219" style="1" width="9.140625" collapsed="true"/>
+    <col min="220" max="220" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="221" max="221" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="222" max="222" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="223" max="223" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="224" max="224" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="225" max="225" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="226" max="226" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
+    <col min="227" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:297" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8138,9 +8152,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8213,16 +8227,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="16" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8605,25 +8619,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>841</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>842</v>
       </c>
       <c r="D1" s="25"/>
     </row>
@@ -8635,13 +8649,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8649,13 +8663,13 @@
         <v>834</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8663,66 +8677,58 @@
         <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>849</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="E6" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>846</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>838</v>
-      </c>
       <c r="C8" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="E8" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8743,6 +8749,5 @@
     <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>